--- a/InputData/cost-outputs/DR/Discount Rate.xlsx
+++ b/InputData/cost-outputs/DR/Discount Rate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\cost-outputs\DR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13605"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DR Discount Rate</t>
   </si>
@@ -26,9 +31,6 @@
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Annual Perc</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -51,12 +53,30 @@
   </si>
   <si>
     <t>We choose to use a 3% discount rate here, for consistency with the 3% rate used for the central estimate</t>
+  </si>
+  <si>
+    <t>This is the annual percentage rate by which future savings (e.g. fuel cost savings) are discounted when</t>
+  </si>
+  <si>
+    <t>making price-driven purchasing decisions in the current year. The value used should be one that is</t>
+  </si>
+  <si>
+    <t>reasonable for people who are looking to buy fuel-consuming capital equipment, such as industrial</t>
+  </si>
+  <si>
+    <t>equipment or building components. The model works in real dollars, so this rate should be the growth</t>
+  </si>
+  <si>
+    <t>in real value, not the growth in nominal value plus real value.</t>
+  </si>
+  <si>
+    <t>Annual Perc (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +131,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -123,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -171,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -431,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,22 +466,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,12 +491,37 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +540,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,9 +550,9 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
